--- a/data/trans_orig/Q02G_LAB-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_LAB-Clase-trans_orig.xlsx
@@ -634,19 +634,19 @@
         <v>2</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.588577129481679</v>
+        <v>1.505316588761939</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.70803153476926</v>
+        <v>2.687378657721482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.141133894906739</v>
+        <v>2.163110400135898</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.685496883956068</v>
+        <v>2.650792655080574</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.118046672189123</v>
+        <v>2.064486190115647</v>
       </c>
     </row>
     <row r="6">
@@ -657,22 +657,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.879971394795295</v>
+        <v>6.929074056076498</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.83796625990262</v>
+        <v>3.475500915117004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.464960166218388</v>
+        <v>8.119865690490954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.977535856490607</v>
+        <v>5.898365163320637</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.110877751444517</v>
+        <v>5.922137412636204</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.725295985455521</v>
+        <v>4.701972742013132</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.458843992146423</v>
+        <v>1.45608984140578</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>1.349244913621421</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.822937530332181</v>
+        <v>1.958677284501544</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.153670271059268</v>
+        <v>3.135305965444528</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2.381508002212235</v>
+        <v>2.28015072243949</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3.168916078060325</v>
+        <v>3.156290970332563</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.331620176914511</v>
+        <v>7.27369746441526</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>8</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.825860499535353</v>
+        <v>6.527127784452284</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6.573564159939952</v>
+        <v>6.387956217401892</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.749271691178352</v>
+        <v>5.813597951735835</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.15969629057118</v>
+        <v>6.092932992213236</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.10572474202947</v>
+        <v>1.101280784245651</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.307369244552089</v>
+        <v>1.348647663841134</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.346782037331188</v>
+        <v>1.335556063127203</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>3</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.605372992871461</v>
+        <v>1.6943514812604</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.957775593427237</v>
+        <v>1.942666426258012</v>
       </c>
     </row>
     <row r="12">
@@ -821,10 +821,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.281282151941085</v>
+        <v>3.302505658773793</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.197225739200309</v>
+        <v>3.184522829267607</v>
       </c>
       <c r="E12" s="5" t="n">
         <v>4.560149260981042</v>
@@ -833,10 +833,10 @@
         <v>16</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.573249472790645</v>
+        <v>3.660159819139294</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.898437374483972</v>
+        <v>5.873082515108637</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.924703596786058</v>
+        <v>2.932761893178838</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.4152654802581</v>
+        <v>2.54389177126902</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.011169640956806</v>
+        <v>2.995693382860443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3.08444564459164</v>
+        <v>3.100841689432903</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.190495575361269</v>
+        <v>3.18156399205946</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.264892946958024</v>
+        <v>3.091212168615214</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.803492341899896</v>
+        <v>5.800811489683465</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.313374070422659</v>
+        <v>8.20654669186411</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.152692986941815</v>
+        <v>5.02433408445685</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.776956895722182</v>
+        <v>5.733920301812491</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>4.757823100004972</v>
+        <v>4.867904089912032</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>6.083107585709143</v>
+        <v>5.69879815438218</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>3.476064943948748</v>
+        <v>3.523397628980403</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.299104188102326</v>
+        <v>3.341326381642991</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.894572600320072</v>
+        <v>2.985120371362211</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.797595838937289</v>
+        <v>2.828668873762344</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>3.335156075844731</v>
+        <v>3.249373319498063</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.134568104045647</v>
+        <v>3.130755197893008</v>
       </c>
     </row>
     <row r="18">
@@ -985,22 +985,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.57172914625398</v>
+        <v>6.657064911067914</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.784730559582017</v>
+        <v>7.930149746150187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.858738622923027</v>
+        <v>4.809707905649022</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.932081749254429</v>
+        <v>4.914059175465351</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.011274277481961</v>
+        <v>4.91365165550333</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.13492360109947</v>
+        <v>5.153693144914155</v>
       </c>
     </row>
     <row r="19">
@@ -1045,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3.687752810993925</v>
+        <v>3.748234877261158</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3.434148529747731</v>
+        <v>3.445832956223177</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>3.628050196381301</v>
+        <v>3.641934030523795</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3.357354721281311</v>
+        <v>3.388450315617201</v>
       </c>
     </row>
     <row r="21">
@@ -1069,16 +1069,16 @@
         <v>5</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.990540918787438</v>
+        <v>6.127495725650647</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.111995664749345</v>
+        <v>6.722311440072091</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>5.833609428694348</v>
+        <v>5.889200447721189</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>6.554884416256362</v>
+        <v>6.761835256292455</v>
       </c>
     </row>
     <row r="22">
@@ -1119,22 +1119,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.011062361102521</v>
+        <v>2.994944339189508</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.750538716057882</v>
+        <v>2.785341727256273</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.551745626692167</v>
+        <v>3.491562222375513</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.53032890528084</v>
+        <v>3.487864368685705</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>3.508402596506666</v>
+        <v>3.506536722614775</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>3.462557289491946</v>
+        <v>3.409024117866723</v>
       </c>
     </row>
     <row r="24">
@@ -1145,22 +1145,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.745349766592464</v>
+        <v>4.725761270661322</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.888284572871938</v>
+        <v>4.93509240934154</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.66036872247531</v>
+        <v>4.595563435585512</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.908153421571076</v>
+        <v>4.824957025202223</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.502213212234938</v>
+        <v>4.446666080286762</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.557200728991152</v>
+        <v>4.599536755028842</v>
       </c>
     </row>
     <row r="25">
